--- a/Tap_Tiles-English.xlsx
+++ b/Tap_Tiles-English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73FAAEF-58ED-40A1-B78B-86E669EA4968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330EFB90-ACA4-43A2-B84E-14475ACCDEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10704" yWindow="0" windowWidth="12336" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,16 +31,16 @@
     <t>Song URL</t>
   </si>
   <si>
-    <t>Heya</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.sb/files/download/type/64/id/70390</t>
-  </si>
-  <si>
     <t>Henlo I am longggggggggggggg</t>
   </si>
   <si>
     <t>https://cdn-icons-png.freepik.com/512/12125/12125397.png</t>
+  </si>
+  <si>
+    <t>Sone Lagde</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.bz/dl/miss-pooja-sohne-lagde-mp3-song-download/64</t>
   </si>
 </sst>
 </file>
@@ -321,8 +321,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -344,31 +344,27 @@
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{424B4BAE-B1FE-4FD7-810D-F6B7796FA4FC}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{F7928D75-EFD2-4F22-B672-AC7FD90F0E02}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tap_Tiles-English.xlsx
+++ b/Tap_Tiles-English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330EFB90-ACA4-43A2-B84E-14475ACCDEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AB3725-1168-461F-9B19-771865348987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10704" yWindow="0" windowWidth="12336" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t>Sone Lagde</t>
   </si>
   <si>
-    <t>https://www.pagalworld.com.bz/dl/miss-pooja-sohne-lagde-mp3-song-download/64</t>
+    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72083</t>
   </si>
 </sst>
 </file>
@@ -322,7 +322,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Tap_Tiles-English.xlsx
+++ b/Tap_Tiles-English.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AB3725-1168-461F-9B19-771865348987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27BEE66-B632-4C9D-9DB4-D9143839AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10704" yWindow="0" windowWidth="12336" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
   <si>
     <t>Song Icon</t>
   </si>
@@ -31,23 +31,449 @@
     <t>Song URL</t>
   </si>
   <si>
-    <t>Henlo I am longggggggggggggg</t>
-  </si>
-  <si>
-    <t>https://cdn-icons-png.freepik.com/512/12125/12125397.png</t>
-  </si>
-  <si>
-    <t>Sone Lagde</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.sb/files/download/type/64/id/72083</t>
+    <t>Chk Chk Boom</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/id/24069</t>
+  </si>
+  <si>
+    <t>Alibi </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft49/24068_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/24068</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft49/24069_4.jpg</t>
+  </si>
+  <si>
+    <t>Rasa Ini </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft48/23863_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/23863</t>
+  </si>
+  <si>
+    <t>Sabrina Carpenter Taste</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft48/23679_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/23679</t>
+  </si>
+  <si>
+    <t>Lilien </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft48/23637_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/23637</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft48/23510_4.jpg</t>
+  </si>
+  <si>
+    <t>Aasa Kooda English Version</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/23510</t>
+  </si>
+  <si>
+    <t>Why Why Why</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft47/23343_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/23343</t>
+  </si>
+  <si>
+    <t>My Oh My</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft47/23279_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/23279</t>
+  </si>
+  <si>
+    <t>Lifeline </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft47/23257_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/23257</t>
+  </si>
+  <si>
+    <t>La Isla Bonita</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft47/23014_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/23014</t>
+  </si>
+  <si>
+    <t>Cheri Cheri Lady</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft47/23004_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/23004</t>
+  </si>
+  <si>
+    <t>I'Ma Dominate (I'Ma Slay)</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22997_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22997</t>
+  </si>
+  <si>
+    <t>Forever </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22991_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22991</t>
+  </si>
+  <si>
+    <t>Cry Baby </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22982_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22982</t>
+  </si>
+  <si>
+    <t>In The Dark</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22977_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22977</t>
+  </si>
+  <si>
+    <t>Move Ya Body </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22967_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22967</t>
+  </si>
+  <si>
+    <t>Yeah!</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22966_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22966</t>
+  </si>
+  <si>
+    <t>Let It Be Me</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22963_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22963</t>
+  </si>
+  <si>
+    <t>Rom Bim Bom </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22922_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22922</t>
+  </si>
+  <si>
+    <t>Immortal Queen</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22872_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22872</t>
+  </si>
+  <si>
+    <t>Hmmm </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22791_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22791</t>
+  </si>
+  <si>
+    <t>Bye Bye Bye</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22687_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22687</t>
+  </si>
+  <si>
+    <t>Deadpool 3</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22685_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22685</t>
+  </si>
+  <si>
+    <t>Headrush </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22676_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22676</t>
+  </si>
+  <si>
+    <t>Big Dawgs</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22664_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22664</t>
+  </si>
+  <si>
+    <t>Like A Prayer </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22659_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22659</t>
+  </si>
+  <si>
+    <t>Espresso </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22574_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/22574</t>
+  </si>
+  <si>
+    <t>Billie Eilish Blue </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft43/21295_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/21295</t>
+  </si>
+  <si>
+    <t>Birds Of A Feather</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/21294</t>
+  </si>
+  <si>
+    <t>Lee Hyori 10 Minutes</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20849_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20849</t>
+  </si>
+  <si>
+    <t>Touch Down 2 Cause Hell</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20799_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20799</t>
+  </si>
+  <si>
+    <t>Prende La Camara</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20798_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20798</t>
+  </si>
+  <si>
+    <t>Eminem Houdini </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20691_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20691</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20567_4.jpg</t>
+  </si>
+  <si>
+    <t>Paul Walker See You Again </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20567</t>
+  </si>
+  <si>
+    <t>One Direction Story of My Life</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20539_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20539</t>
+  </si>
+  <si>
+    <t>What Makes You Beautiful</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20492_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20492</t>
+  </si>
+  <si>
+    <t>Marshmello Alone </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20474_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20474</t>
+  </si>
+  <si>
+    <t>Old Town Road </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20465_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20465</t>
+  </si>
+  <si>
+    <t>Waka Waka </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20462_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20462</t>
+  </si>
+  <si>
+    <t>Steal My Girl </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20461_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20461</t>
+  </si>
+  <si>
+    <t>One Day</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20452_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/id/20452</t>
+  </si>
+  <si>
+    <t>Rm Lost</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20423_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20423</t>
+  </si>
+  <si>
+    <t>Brazilian Phonk Mano</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20355_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20355</t>
+  </si>
+  <si>
+    <t>Stay With Me Goblin</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20347_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20347</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20316_4.jpg</t>
+  </si>
+  <si>
+    <t>Gangstas Paradise</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/id/20316</t>
+  </si>
+  <si>
+    <t>I Can Do It With A Broken Heart </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20054_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20054</t>
+  </si>
+  <si>
+    <t>I Wanna Be Yours </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20032_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20032</t>
+  </si>
+  <si>
+    <t>Summertime Sadness</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft30/14662_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/14662</t>
+  </si>
+  <si>
+    <t>In The Name Of Love </t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20020_4.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.so/files/download/type/128/id/20020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -73,6 +499,14 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,11 +529,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -319,15 +756,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -342,26 +780,543 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Tap_Tiles-English.xlsx
+++ b/Tap_Tiles-English.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27BEE66-B632-4C9D-9DB4-D9143839AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F26E7CC-646F-4A72-8362-5ED88B9D44BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
   <si>
     <t>Song Icon</t>
   </si>
@@ -34,360 +34,24 @@
     <t>Chk Chk Boom</t>
   </si>
   <si>
-    <t>https://www.pagalworld.com.so/files/download/id/24069</t>
-  </si>
-  <si>
-    <t>Alibi </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft49/24068_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/24068</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft49/24069_4.jpg</t>
-  </si>
-  <si>
-    <t>Rasa Ini </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft48/23863_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/23863</t>
-  </si>
-  <si>
     <t>Sabrina Carpenter Taste</t>
   </si>
   <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft48/23679_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/23679</t>
-  </si>
-  <si>
-    <t>Lilien </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft48/23637_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/23637</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft48/23510_4.jpg</t>
-  </si>
-  <si>
     <t>Aasa Kooda English Version</t>
   </si>
   <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/23510</t>
-  </si>
-  <si>
-    <t>Why Why Why</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft47/23343_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/23343</t>
-  </si>
-  <si>
-    <t>My Oh My</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft47/23279_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/23279</t>
-  </si>
-  <si>
-    <t>Lifeline </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft47/23257_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/23257</t>
-  </si>
-  <si>
-    <t>La Isla Bonita</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft47/23014_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/23014</t>
-  </si>
-  <si>
     <t>Cheri Cheri Lady</t>
   </si>
   <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft47/23004_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/23004</t>
-  </si>
-  <si>
-    <t>I'Ma Dominate (I'Ma Slay)</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22997_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22997</t>
-  </si>
-  <si>
-    <t>Forever </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22991_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22991</t>
-  </si>
-  <si>
-    <t>Cry Baby </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22982_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22982</t>
-  </si>
-  <si>
-    <t>In The Dark</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22977_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22977</t>
-  </si>
-  <si>
-    <t>Move Ya Body </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22967_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22967</t>
-  </si>
-  <si>
-    <t>Yeah!</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22966_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22966</t>
-  </si>
-  <si>
     <t>Let It Be Me</t>
   </si>
   <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22963_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22963</t>
-  </si>
-  <si>
-    <t>Rom Bim Bom </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22922_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22922</t>
-  </si>
-  <si>
-    <t>Immortal Queen</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22872_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22872</t>
-  </si>
-  <si>
-    <t>Hmmm </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22791_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22791</t>
-  </si>
-  <si>
-    <t>Bye Bye Bye</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22687_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22687</t>
-  </si>
-  <si>
-    <t>Deadpool 3</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22685_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22685</t>
-  </si>
-  <si>
-    <t>Headrush </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22676_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22676</t>
-  </si>
-  <si>
-    <t>Big Dawgs</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22664_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22664</t>
-  </si>
-  <si>
-    <t>Like A Prayer </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22659_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22659</t>
-  </si>
-  <si>
-    <t>Espresso </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft46/22574_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/22574</t>
-  </si>
-  <si>
-    <t>Billie Eilish Blue </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft43/21295_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/21295</t>
-  </si>
-  <si>
     <t>Birds Of A Feather</t>
   </si>
   <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/21294</t>
-  </si>
-  <si>
-    <t>Lee Hyori 10 Minutes</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20849_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20849</t>
-  </si>
-  <si>
-    <t>Touch Down 2 Cause Hell</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20799_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20799</t>
-  </si>
-  <si>
-    <t>Prende La Camara</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20798_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20798</t>
-  </si>
-  <si>
-    <t>Eminem Houdini </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20691_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20691</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20567_4.jpg</t>
-  </si>
-  <si>
-    <t>Paul Walker See You Again </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20567</t>
-  </si>
-  <si>
-    <t>One Direction Story of My Life</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft42/20539_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20539</t>
-  </si>
-  <si>
     <t>What Makes You Beautiful</t>
   </si>
   <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20492_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20492</t>
-  </si>
-  <si>
-    <t>Marshmello Alone </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20474_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20474</t>
-  </si>
-  <si>
-    <t>Old Town Road </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20465_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20465</t>
-  </si>
-  <si>
-    <t>Waka Waka </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20462_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20462</t>
-  </si>
-  <si>
-    <t>Steal My Girl </t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/uploads/thumb/sft41/20461_4.jpg</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.so/files/download/type/128/id/20461</t>
-  </si>
-  <si>
     <t>One Day</t>
   </si>
   <si>
@@ -467,13 +131,346 @@
   </si>
   <si>
     <t>https://www.pagalworld.com.so/files/download/type/128/id/20020</t>
+  </si>
+  <si>
+    <t>Warning Signs</t>
+  </si>
+  <si>
+    <t>Iniko Jericho</t>
+  </si>
+  <si>
+    <t>Stars Will Align</t>
+  </si>
+  <si>
+    <t>Children Of The Sun</t>
+  </si>
+  <si>
+    <t>Alibi</t>
+  </si>
+  <si>
+    <t>Rasa Ini</t>
+  </si>
+  <si>
+    <t>Lilien</t>
+  </si>
+  <si>
+    <t>Move Ya Body</t>
+  </si>
+  <si>
+    <t>Yeah</t>
+  </si>
+  <si>
+    <t>Rom Bim Bom</t>
+  </si>
+  <si>
+    <t>Despacito</t>
+  </si>
+  <si>
+    <t>Headrush</t>
+  </si>
+  <si>
+    <t>Billie Eilish Blue</t>
+  </si>
+  <si>
+    <t>Marshmello Alone</t>
+  </si>
+  <si>
+    <t>Old Town Road</t>
+  </si>
+  <si>
+    <t>Shakira Waka Waka</t>
+  </si>
+  <si>
+    <t>Steal My Girl</t>
+  </si>
+  <si>
+    <t>One Day Alan Walker</t>
+  </si>
+  <si>
+    <t>I Can Do It With A Broken Heart</t>
+  </si>
+  <si>
+    <t>In The Name Of Love</t>
+  </si>
+  <si>
+    <t>Life in Rio</t>
+  </si>
+  <si>
+    <t>One More Light</t>
+  </si>
+  <si>
+    <t>Bling Bang Bang Born</t>
+  </si>
+  <si>
+    <t>Now And Then</t>
+  </si>
+  <si>
+    <t>Angels in Tibet</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Made For Me</t>
+  </si>
+  <si>
+    <t>Family Affair</t>
+  </si>
+  <si>
+    <t>Lovely Bastards</t>
+  </si>
+  <si>
+    <t>Nightmares</t>
+  </si>
+  <si>
+    <t>Kiss And Make Up</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/id/21216</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/21205</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/21204</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/21062</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/id/20894</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20893</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20719</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20569</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20551</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20493</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20128</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20092</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20091</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20090</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20068</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/20065</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19991</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19609</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19608</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19497</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19482</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19473</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19470</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19469</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/id/19460</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19438</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19095</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/19018</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/18917</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/18690</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/16811</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/16460</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/16408</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/15898</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/15696</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/15601</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/15568</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/14599</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/14182</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/files/download/type/128/id/14124</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft43/21216_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft43/21205_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft43/21204_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft43/21062_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft42/20894_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft42/20893_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft42/20719_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft42/20569_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft42/20551_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft41/20493_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft41/20128_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft41/20092_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft41/20091_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft41/20090_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft41/20068_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft41/20065_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft40/19991_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft40/19609_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft40/19608_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft39/19497_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft39/19482_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft39/19473_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft39/19470_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft39/19469_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft39/19460_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft39/19438_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft39/19095_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft39/19018_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft38/18917_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft38/18690_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft34/16811_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft33/16460_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft33/16408_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft32/15898_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft32/15696_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft32/15601_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft32/15568_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft30/14599_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft29/14182_1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.pagalworld.com.co/uploads/thumb/sft29/14124_1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -483,19 +480,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -525,21 +509,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -758,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -780,364 +760,364 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>75</v>
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>84</v>
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>87</v>
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>89</v>
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>92</v>
+        <v>138</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>95</v>
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>98</v>
+        <v>140</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>100</v>
@@ -1145,178 +1125,178 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
         <v>101</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>142</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>107</v>
+        <v>143</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>110</v>
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>113</v>
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>116</v>
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>122</v>
+        <v>11</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>125</v>
+        <v>14</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>17</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>22</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>137</v>
+        <v>26</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>140</v>
+        <v>29</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>143</v>
+        <v>32</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>146</v>
+        <v>35</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Tap_Tiles-English.xlsx
+++ b/Tap_Tiles-English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F26E7CC-646F-4A72-8362-5ED88B9D44BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949ED30C-4653-47EC-B298-894E1E10A8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>Song Icon</t>
   </si>
@@ -133,9 +133,6 @@
     <t>https://www.pagalworld.com.so/files/download/type/128/id/20020</t>
   </si>
   <si>
-    <t>Warning Signs</t>
-  </si>
-  <si>
     <t>Iniko Jericho</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>Kiss And Make Up</t>
   </si>
   <si>
-    <t>https://www.pagalworld.com.co/files/download/id/21216</t>
-  </si>
-  <si>
     <t>https://www.pagalworld.com.co/files/download/type/128/id/21205</t>
   </si>
   <si>
@@ -344,9 +338,6 @@
   </si>
   <si>
     <t>https://www.pagalworld.com.co/files/download/type/128/id/14124</t>
-  </si>
-  <si>
-    <t>https://www.pagalworld.com.co/uploads/thumb/sft43/21216_1.jpg</t>
   </si>
   <si>
     <t>https://www.pagalworld.com.co/uploads/thumb/sft43/21205_1.jpg</t>
@@ -736,10 +727,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -760,542 +751,531 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
         <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
         <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
         <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
+        <v>11</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Tap_Tiles-English.xlsx
+++ b/Tap_Tiles-English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949ED30C-4653-47EC-B298-894E1E10A8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B816DF-604C-4389-97A2-63883E668C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
